--- a/data/pca/factorExposure/factorExposure_2011-03-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01039944239424926</v>
+        <v>0.01363601774481528</v>
       </c>
       <c r="C2">
-        <v>0.001570669086017265</v>
+        <v>-0.007216770835626134</v>
       </c>
       <c r="D2">
-        <v>-0.01814709584772232</v>
+        <v>0.004212686003766207</v>
       </c>
       <c r="E2">
-        <v>-0.01897764997332316</v>
+        <v>-0.01029048795385562</v>
       </c>
       <c r="F2">
-        <v>-0.004943838917416777</v>
+        <v>-0.00238977521058538</v>
       </c>
       <c r="G2">
-        <v>-0.02132374382610186</v>
+        <v>-0.02284447257922044</v>
       </c>
       <c r="H2">
-        <v>-0.04472258505409598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01072469599364201</v>
+      </c>
+      <c r="I2">
+        <v>0.00327925380294885</v>
+      </c>
+      <c r="J2">
+        <v>-0.006271009769513741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1075883387021746</v>
+        <v>0.1212063784816365</v>
       </c>
       <c r="C4">
-        <v>-0.01932525316371842</v>
+        <v>-0.05467246248429552</v>
       </c>
       <c r="D4">
-        <v>-0.0723767439968824</v>
+        <v>0.01055592287032364</v>
       </c>
       <c r="E4">
-        <v>-0.03131141986480719</v>
+        <v>-0.005299200173548064</v>
       </c>
       <c r="F4">
-        <v>-0.04132796798304769</v>
+        <v>-0.004957380831555128</v>
       </c>
       <c r="G4">
-        <v>-0.01789502003729747</v>
+        <v>-0.003328501340846209</v>
       </c>
       <c r="H4">
-        <v>0.02907149020317659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06037284057426882</v>
+      </c>
+      <c r="I4">
+        <v>-0.1368602354264304</v>
+      </c>
+      <c r="J4">
+        <v>-0.04634419801091494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1287254650463324</v>
+        <v>0.1218807573086778</v>
       </c>
       <c r="C6">
-        <v>-0.0297221585496792</v>
+        <v>-0.00156067066582958</v>
       </c>
       <c r="D6">
-        <v>0.00657918929613162</v>
+        <v>0.0152455094860849</v>
       </c>
       <c r="E6">
-        <v>-0.027938918665579</v>
+        <v>-0.01412815717275352</v>
       </c>
       <c r="F6">
-        <v>0.2328497632285954</v>
+        <v>-0.0271765049304297</v>
       </c>
       <c r="G6">
-        <v>0.1157414137199348</v>
+        <v>0.03811181099056473</v>
       </c>
       <c r="H6">
-        <v>0.2899552298425617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.03240612868816998</v>
+      </c>
+      <c r="I6">
+        <v>-0.0278004710172427</v>
+      </c>
+      <c r="J6">
+        <v>0.1857317274970666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0898909767337203</v>
+        <v>0.07790739138874318</v>
       </c>
       <c r="C7">
-        <v>-0.03535119552926513</v>
+        <v>-0.04794405719633898</v>
       </c>
       <c r="D7">
-        <v>-0.0336203549636418</v>
+        <v>0.04112710300726705</v>
       </c>
       <c r="E7">
-        <v>-0.05108054471725696</v>
+        <v>-0.04767895624407727</v>
       </c>
       <c r="F7">
-        <v>0.002503316890862148</v>
+        <v>-0.004406158499196782</v>
       </c>
       <c r="G7">
-        <v>0.00255468900407369</v>
+        <v>-0.03702426236409709</v>
       </c>
       <c r="H7">
-        <v>0.005927814138625019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03257719984459406</v>
+      </c>
+      <c r="I7">
+        <v>-0.04432125505298408</v>
+      </c>
+      <c r="J7">
+        <v>-0.05534861494441547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04220727842967283</v>
+        <v>0.05144144057552897</v>
       </c>
       <c r="C8">
-        <v>0.03419872768014593</v>
+        <v>-0.007087895187809317</v>
       </c>
       <c r="D8">
-        <v>-0.123667537926914</v>
+        <v>0.006818138672283107</v>
       </c>
       <c r="E8">
-        <v>-0.07739564893886051</v>
+        <v>-0.02235857126047468</v>
       </c>
       <c r="F8">
-        <v>-0.02732274483917623</v>
+        <v>0.005086265881763306</v>
       </c>
       <c r="G8">
-        <v>-0.1304973621852087</v>
+        <v>0.001352775905319513</v>
       </c>
       <c r="H8">
-        <v>0.07018466839082912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.06893007419980812</v>
+      </c>
+      <c r="I8">
+        <v>-0.1055625626210983</v>
+      </c>
+      <c r="J8">
+        <v>0.004221859089650317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09513345053135501</v>
+        <v>0.09439032963681462</v>
       </c>
       <c r="C9">
-        <v>-0.03856877745037483</v>
+        <v>-0.05635106224374381</v>
       </c>
       <c r="D9">
-        <v>-0.06458866195510315</v>
+        <v>-0.004066271605551139</v>
       </c>
       <c r="E9">
-        <v>-0.03365615171312854</v>
+        <v>-0.01657585359925009</v>
       </c>
       <c r="F9">
-        <v>-0.02026367730675459</v>
+        <v>0.004332564271830501</v>
       </c>
       <c r="G9">
-        <v>-0.06274708628401379</v>
+        <v>-0.01759226840185247</v>
       </c>
       <c r="H9">
-        <v>0.04582184382160201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07276070691762748</v>
+      </c>
+      <c r="I9">
+        <v>-0.1128510789526309</v>
+      </c>
+      <c r="J9">
+        <v>-0.01884483903913114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03882128276191546</v>
+        <v>0.0743092077471679</v>
       </c>
       <c r="C10">
-        <v>0.1716491563669829</v>
+        <v>0.1819007588436641</v>
       </c>
       <c r="D10">
-        <v>-0.04852661223021469</v>
+        <v>-0.0130489226108961</v>
       </c>
       <c r="E10">
-        <v>-0.09884734787037164</v>
+        <v>0.008185274708055927</v>
       </c>
       <c r="F10">
-        <v>0.02268317781560955</v>
+        <v>-0.01375954277147369</v>
       </c>
       <c r="G10">
-        <v>0.01637750155960816</v>
+        <v>-0.06689020200836292</v>
       </c>
       <c r="H10">
-        <v>0.02079499583970097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.003764962391528816</v>
+      </c>
+      <c r="I10">
+        <v>-0.01074667083944194</v>
+      </c>
+      <c r="J10">
+        <v>-0.02201688667075051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07795041712458299</v>
+        <v>0.08370797650729962</v>
       </c>
       <c r="C11">
-        <v>-0.06114455581486252</v>
+        <v>-0.05636770137635633</v>
       </c>
       <c r="D11">
-        <v>0.003593433610281254</v>
+        <v>0.02599440639263939</v>
       </c>
       <c r="E11">
-        <v>-0.0263882160388898</v>
+        <v>-0.03650016240546845</v>
       </c>
       <c r="F11">
-        <v>-0.01341335384741122</v>
+        <v>0.03878321676032705</v>
       </c>
       <c r="G11">
-        <v>-0.1583563266080203</v>
+        <v>0.00361713611599006</v>
       </c>
       <c r="H11">
-        <v>-0.05142395961895677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.07886489658917172</v>
+      </c>
+      <c r="I11">
+        <v>-0.0991382593123145</v>
+      </c>
+      <c r="J11">
+        <v>-0.008726041938381876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07360765673416773</v>
+        <v>0.08696960790239425</v>
       </c>
       <c r="C12">
-        <v>-0.04082104126836061</v>
+        <v>-0.06503668746490979</v>
       </c>
       <c r="D12">
-        <v>-0.03283069252446377</v>
+        <v>0.02755895195028031</v>
       </c>
       <c r="E12">
-        <v>-0.007138158068987105</v>
+        <v>-0.04003019777475386</v>
       </c>
       <c r="F12">
-        <v>0.009071579794590121</v>
+        <v>0.06032070447666586</v>
       </c>
       <c r="G12">
-        <v>-0.1495453474474212</v>
+        <v>-0.01024081780209747</v>
       </c>
       <c r="H12">
-        <v>-0.03252056499164659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.08592257054950977</v>
+      </c>
+      <c r="I12">
+        <v>-0.07686846077278812</v>
+      </c>
+      <c r="J12">
+        <v>0.01710227943689583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06291561958404006</v>
+        <v>0.04842564938744139</v>
       </c>
       <c r="C13">
-        <v>-0.00704419457844235</v>
+        <v>-0.02760114378291753</v>
       </c>
       <c r="D13">
-        <v>-0.02647093113572532</v>
+        <v>-0.02779212462655813</v>
       </c>
       <c r="E13">
-        <v>-0.004516718387649331</v>
+        <v>-0.01552384658821885</v>
       </c>
       <c r="F13">
-        <v>-0.05413142450324433</v>
+        <v>-0.01901338408426341</v>
       </c>
       <c r="G13">
-        <v>-0.06195311188906914</v>
+        <v>-0.008966179608734427</v>
       </c>
       <c r="H13">
-        <v>0.01508925340192868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.06997525061324779</v>
+      </c>
+      <c r="I13">
+        <v>-0.05815325987618743</v>
+      </c>
+      <c r="J13">
+        <v>0.0259842673387324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05335572969700177</v>
+        <v>0.0345636360571413</v>
       </c>
       <c r="C14">
-        <v>-0.006893063687837429</v>
+        <v>-0.006114969222568765</v>
       </c>
       <c r="D14">
-        <v>-0.04589371918068639</v>
+        <v>0.00871093592149166</v>
       </c>
       <c r="E14">
-        <v>-0.04626575241627311</v>
+        <v>-0.003241695171124176</v>
       </c>
       <c r="F14">
-        <v>-0.03292727130367994</v>
+        <v>0.01512393160913273</v>
       </c>
       <c r="G14">
-        <v>-0.01731288173573287</v>
+        <v>-0.007361277783392856</v>
       </c>
       <c r="H14">
-        <v>0.1376664773901481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.04946627177141032</v>
+      </c>
+      <c r="I14">
+        <v>-0.07729968003931743</v>
+      </c>
+      <c r="J14">
+        <v>-0.07976252847841551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0375979484129237</v>
+        <v>0.02788810038694622</v>
       </c>
       <c r="C15">
-        <v>0.01073420194127233</v>
+        <v>-0.01052227269627631</v>
       </c>
       <c r="D15">
-        <v>-0.007736694757902827</v>
+        <v>-0.0118913900064347</v>
       </c>
       <c r="E15">
-        <v>-0.0164675265036494</v>
+        <v>-0.01508995184569073</v>
       </c>
       <c r="F15">
-        <v>-0.000948922452279663</v>
+        <v>-0.03334283605605666</v>
       </c>
       <c r="G15">
-        <v>-0.004861393973405423</v>
+        <v>-0.008330633013740082</v>
       </c>
       <c r="H15">
-        <v>0.06849770530322143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03716500494990176</v>
+      </c>
+      <c r="I15">
+        <v>-0.0188327130141785</v>
+      </c>
+      <c r="J15">
+        <v>-0.02236356469003165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08247071863849816</v>
+        <v>0.08929901551837653</v>
       </c>
       <c r="C16">
-        <v>-0.06869564239077959</v>
+        <v>-0.06021203455060453</v>
       </c>
       <c r="D16">
-        <v>-0.03517757371988253</v>
+        <v>0.03856713368573401</v>
       </c>
       <c r="E16">
-        <v>-0.007394582771629413</v>
+        <v>-0.04886168002190081</v>
       </c>
       <c r="F16">
-        <v>-0.04530974270034031</v>
+        <v>0.04376537760065623</v>
       </c>
       <c r="G16">
-        <v>-0.1144219878920697</v>
+        <v>0.001021210618373505</v>
       </c>
       <c r="H16">
-        <v>-0.04569511436223796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09926987968383694</v>
+      </c>
+      <c r="I16">
+        <v>-0.08577351432077134</v>
+      </c>
+      <c r="J16">
+        <v>-0.01988594004546122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05637302670932118</v>
+        <v>0.05180594814582835</v>
       </c>
       <c r="C20">
-        <v>-0.01953777565979092</v>
+        <v>-0.02467806369263759</v>
       </c>
       <c r="D20">
-        <v>-0.01882060762708473</v>
+        <v>0.03221844419381974</v>
       </c>
       <c r="E20">
-        <v>-0.01510807296141476</v>
+        <v>-0.004581699476304143</v>
       </c>
       <c r="F20">
-        <v>-0.001238226736080957</v>
+        <v>-0.01112689331846591</v>
       </c>
       <c r="G20">
-        <v>-0.1060725613460232</v>
+        <v>-0.003442330375625348</v>
       </c>
       <c r="H20">
-        <v>0.003535479364100281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04461900262065246</v>
+      </c>
+      <c r="I20">
+        <v>-0.04944412180632359</v>
+      </c>
+      <c r="J20">
+        <v>-0.02687197192415863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02793415940951432</v>
+        <v>0.0240335830747477</v>
       </c>
       <c r="C21">
-        <v>-0.03781036646025779</v>
+        <v>-0.007585555940585089</v>
       </c>
       <c r="D21">
-        <v>-0.01336327921173175</v>
+        <v>0.01321434939412544</v>
       </c>
       <c r="E21">
-        <v>-0.01763237268477938</v>
+        <v>0.03241566294844136</v>
       </c>
       <c r="F21">
-        <v>0.07418934423376555</v>
+        <v>-0.007490412218315779</v>
       </c>
       <c r="G21">
-        <v>0.09906518104343114</v>
+        <v>0.02936862835539905</v>
       </c>
       <c r="H21">
-        <v>0.06984736218051832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.03557162385336147</v>
+      </c>
+      <c r="I21">
+        <v>-0.08700531797962309</v>
+      </c>
+      <c r="J21">
+        <v>-0.01015884793838064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04092336294993591</v>
+        <v>0.03370586930728639</v>
       </c>
       <c r="C22">
-        <v>-0.01788966274598206</v>
+        <v>0.008720924648458177</v>
       </c>
       <c r="D22">
-        <v>-0.5178540771155867</v>
+        <v>0.01131894691977062</v>
       </c>
       <c r="E22">
-        <v>0.235327622809497</v>
+        <v>-0.1289441466190662</v>
       </c>
       <c r="F22">
-        <v>-0.08819525675331588</v>
+        <v>-0.6186379888012697</v>
       </c>
       <c r="G22">
-        <v>0.3180105851283197</v>
+        <v>-0.07789071890991042</v>
       </c>
       <c r="H22">
-        <v>-0.09075086623112955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1824087622308603</v>
+      </c>
+      <c r="I22">
+        <v>0.1320990072870112</v>
+      </c>
+      <c r="J22">
+        <v>0.01205539184655484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04105994894544154</v>
+        <v>0.03388358979745813</v>
       </c>
       <c r="C23">
-        <v>-0.01829224459593459</v>
+        <v>0.008421757023678528</v>
       </c>
       <c r="D23">
-        <v>-0.5174936886594895</v>
+        <v>0.01176893337708996</v>
       </c>
       <c r="E23">
-        <v>0.2327996754162735</v>
+        <v>-0.1306937423582118</v>
       </c>
       <c r="F23">
-        <v>-0.08936240489685934</v>
+        <v>-0.6204972428736666</v>
       </c>
       <c r="G23">
-        <v>0.3190065097833648</v>
+        <v>-0.07768455000124765</v>
       </c>
       <c r="H23">
-        <v>-0.0898706673339576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1838151972602237</v>
+      </c>
+      <c r="I23">
+        <v>0.1291387779022926</v>
+      </c>
+      <c r="J23">
+        <v>0.01155706787712629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0864933900331856</v>
+        <v>0.09379503551063839</v>
       </c>
       <c r="C24">
-        <v>-0.04909406003167645</v>
+        <v>-0.05927777110468542</v>
       </c>
       <c r="D24">
-        <v>-0.03866030135053228</v>
+        <v>0.03533866202688592</v>
       </c>
       <c r="E24">
-        <v>-0.02947786085362305</v>
+        <v>-0.03419578011471602</v>
       </c>
       <c r="F24">
-        <v>-0.002186943167630643</v>
+        <v>0.04090412408367675</v>
       </c>
       <c r="G24">
-        <v>-0.1248016814536382</v>
+        <v>-0.0155897446903622</v>
       </c>
       <c r="H24">
-        <v>-0.02118798821547858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1000365275467433</v>
+      </c>
+      <c r="I24">
+        <v>-0.0774093755584392</v>
+      </c>
+      <c r="J24">
+        <v>0.0007919947911051553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07792319338119132</v>
+        <v>0.09283264280123608</v>
       </c>
       <c r="C25">
-        <v>-0.02454630123504476</v>
+        <v>-0.03918758774909722</v>
       </c>
       <c r="D25">
-        <v>-0.03546390582225268</v>
+        <v>0.02550137832422805</v>
       </c>
       <c r="E25">
-        <v>-0.01713822983579729</v>
+        <v>-0.03680630709415101</v>
       </c>
       <c r="F25">
-        <v>0.01496314562750553</v>
+        <v>0.06709258146115431</v>
       </c>
       <c r="G25">
-        <v>-0.1236941377644169</v>
+        <v>-0.01249530239875584</v>
       </c>
       <c r="H25">
-        <v>-0.02415295274374248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09815884176826273</v>
+      </c>
+      <c r="I25">
+        <v>-0.0766258696966515</v>
+      </c>
+      <c r="J25">
+        <v>-0.02188110224991239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05147026445378286</v>
+        <v>0.04097123709561864</v>
       </c>
       <c r="C26">
-        <v>-0.02098685464703837</v>
+        <v>0.01190954613794333</v>
       </c>
       <c r="D26">
-        <v>-0.02551432094403539</v>
+        <v>0.02206409676490502</v>
       </c>
       <c r="E26">
-        <v>-0.04583710678312642</v>
+        <v>0.0007355455106903056</v>
       </c>
       <c r="F26">
-        <v>-0.04587789677875555</v>
+        <v>-0.003422986134830318</v>
       </c>
       <c r="G26">
-        <v>-0.05425384499304335</v>
+        <v>0.01913501043804335</v>
       </c>
       <c r="H26">
-        <v>0.06446151477246141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.0645531212191231</v>
+      </c>
+      <c r="I26">
+        <v>-0.03006967484477048</v>
+      </c>
+      <c r="J26">
+        <v>-0.04700442526194423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.05994784930240177</v>
+        <v>0.08360972762009403</v>
       </c>
       <c r="C28">
-        <v>0.3075504071321815</v>
+        <v>0.3042376538870493</v>
       </c>
       <c r="D28">
-        <v>0.0110661903677669</v>
+        <v>-0.09580419548266092</v>
       </c>
       <c r="E28">
-        <v>-0.02629033147152703</v>
+        <v>-0.01205850808354938</v>
       </c>
       <c r="F28">
-        <v>0.03744757908251705</v>
+        <v>0.02732284922316246</v>
       </c>
       <c r="G28">
-        <v>0.01490368287407388</v>
+        <v>-0.004419761556687301</v>
       </c>
       <c r="H28">
-        <v>-0.06824330175886398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04269589548481784</v>
+      </c>
+      <c r="I28">
+        <v>-0.03361472194310867</v>
+      </c>
+      <c r="J28">
+        <v>0.01093158708666348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05978968099693763</v>
+        <v>0.03596337597955653</v>
       </c>
       <c r="C29">
-        <v>-0.000136263300358968</v>
+        <v>-0.007973156082816001</v>
       </c>
       <c r="D29">
-        <v>-0.04947485161847895</v>
+        <v>-0.005446024271152749</v>
       </c>
       <c r="E29">
-        <v>-0.02210592285309273</v>
+        <v>-0.01154486586112754</v>
       </c>
       <c r="F29">
-        <v>-0.0355917699608902</v>
+        <v>0.01966395810082752</v>
       </c>
       <c r="G29">
-        <v>-0.02982619313188811</v>
+        <v>-0.02643042373561753</v>
       </c>
       <c r="H29">
-        <v>0.08492125815415547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.08422660587490002</v>
+      </c>
+      <c r="I29">
+        <v>-0.06548095989108456</v>
+      </c>
+      <c r="J29">
+        <v>-0.06685004976936777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1163038249560873</v>
+        <v>0.1184463670120635</v>
       </c>
       <c r="C30">
-        <v>0.02715747642296825</v>
+        <v>-0.06542089569778098</v>
       </c>
       <c r="D30">
-        <v>-0.2247542787197489</v>
+        <v>-0.01278153771539697</v>
       </c>
       <c r="E30">
-        <v>0.001791397267920055</v>
+        <v>-0.0463426361246283</v>
       </c>
       <c r="F30">
-        <v>0.1062124122806224</v>
+        <v>0.02028271832449442</v>
       </c>
       <c r="G30">
-        <v>-0.1640257677279122</v>
+        <v>0.03592941930181282</v>
       </c>
       <c r="H30">
-        <v>-0.01708849331972193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1521123517444401</v>
+      </c>
+      <c r="I30">
+        <v>-0.08185085829293105</v>
+      </c>
+      <c r="J30">
+        <v>0.30358179145314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05661243556588218</v>
+        <v>0.03519783262650223</v>
       </c>
       <c r="C31">
-        <v>-0.02259372585675637</v>
+        <v>-0.02207533395571501</v>
       </c>
       <c r="D31">
-        <v>-0.00299733214541536</v>
+        <v>0.02110155451047523</v>
       </c>
       <c r="E31">
-        <v>0.01879960619432111</v>
+        <v>-0.02100890574968592</v>
       </c>
       <c r="F31">
-        <v>-0.03038809723508012</v>
+        <v>-0.001030004622315792</v>
       </c>
       <c r="G31">
-        <v>-0.00928550309908424</v>
+        <v>-0.003921793598417884</v>
       </c>
       <c r="H31">
-        <v>0.02673882265478235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.01678574433190172</v>
+      </c>
+      <c r="I31">
+        <v>-0.03538852608004239</v>
+      </c>
+      <c r="J31">
+        <v>-0.0596289394793472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03459781173801721</v>
+        <v>0.05569928232571848</v>
       </c>
       <c r="C32">
-        <v>0.01115573434760258</v>
+        <v>-0.005295422120378174</v>
       </c>
       <c r="D32">
-        <v>-0.09557952942563119</v>
+        <v>0.02026514177022263</v>
       </c>
       <c r="E32">
-        <v>0.05296915761553722</v>
+        <v>-0.00184325832227237</v>
       </c>
       <c r="F32">
-        <v>-0.1072008329721117</v>
+        <v>0.05063721335189161</v>
       </c>
       <c r="G32">
-        <v>-0.01747549927495343</v>
+        <v>0.04446531007164237</v>
       </c>
       <c r="H32">
-        <v>0.008084093104468396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.05635029583326861</v>
+      </c>
+      <c r="I32">
+        <v>-0.03383614633768026</v>
+      </c>
+      <c r="J32">
+        <v>0.01032691391102259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1131427822182978</v>
+        <v>0.1063783635884884</v>
       </c>
       <c r="C33">
-        <v>-0.01404336911881728</v>
+        <v>-0.05788659348563927</v>
       </c>
       <c r="D33">
-        <v>-0.01142810772271281</v>
+        <v>-0.001019104281235614</v>
       </c>
       <c r="E33">
-        <v>0.0338302267786496</v>
+        <v>-0.08090576898238951</v>
       </c>
       <c r="F33">
-        <v>-0.02517694719691041</v>
+        <v>0.03966608081329374</v>
       </c>
       <c r="G33">
-        <v>-0.06838598904261659</v>
+        <v>-0.0003230709174848461</v>
       </c>
       <c r="H33">
-        <v>0.06830978330791383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.0732056248771995</v>
+      </c>
+      <c r="I33">
+        <v>-0.05054184679635335</v>
+      </c>
+      <c r="J33">
+        <v>-0.03224335511457527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06897224854794702</v>
+        <v>0.08274993403123204</v>
       </c>
       <c r="C34">
-        <v>-0.04302546482819136</v>
+        <v>-0.04963148000130021</v>
       </c>
       <c r="D34">
-        <v>-0.01279993364610349</v>
+        <v>0.03266248023971371</v>
       </c>
       <c r="E34">
-        <v>0.001305777652064089</v>
+        <v>-0.04062470018805441</v>
       </c>
       <c r="F34">
-        <v>-0.02837628917329551</v>
+        <v>0.04748905471761721</v>
       </c>
       <c r="G34">
-        <v>-0.09663781784947795</v>
+        <v>-0.006521607848850082</v>
       </c>
       <c r="H34">
-        <v>-0.01447067650270228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1081352822885119</v>
+      </c>
+      <c r="I34">
+        <v>-0.06761502093013064</v>
+      </c>
+      <c r="J34">
+        <v>-0.02478751819558824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04331235877366226</v>
+        <v>0.02153943521200278</v>
       </c>
       <c r="C35">
-        <v>-0.008414187269419707</v>
+        <v>-0.01303675087037229</v>
       </c>
       <c r="D35">
-        <v>0.003986445148727626</v>
+        <v>-0.006419014357092515</v>
       </c>
       <c r="E35">
-        <v>0.01112013598718018</v>
+        <v>-0.008550088581013748</v>
       </c>
       <c r="F35">
-        <v>0.05170960394496675</v>
+        <v>0.01010494460897907</v>
       </c>
       <c r="G35">
-        <v>-0.04730416772359962</v>
+        <v>-0.006366603661787254</v>
       </c>
       <c r="H35">
-        <v>-0.0265040975198337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.05501781476392432</v>
+      </c>
+      <c r="I35">
+        <v>-0.03448432952506793</v>
+      </c>
+      <c r="J35">
+        <v>-0.04726977441083863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0391328240894741</v>
+        <v>0.02819917038405841</v>
       </c>
       <c r="C36">
-        <v>-0.0006750820543309068</v>
+        <v>-0.008010977503408142</v>
       </c>
       <c r="D36">
-        <v>-0.04157844531191773</v>
+        <v>-0.005856050489345625</v>
       </c>
       <c r="E36">
-        <v>-0.01235499961587088</v>
+        <v>-0.00251513870604923</v>
       </c>
       <c r="F36">
-        <v>0.001743475037263498</v>
+        <v>-0.01028060784349141</v>
       </c>
       <c r="G36">
-        <v>-0.05545347465919554</v>
+        <v>0.01278256727312415</v>
       </c>
       <c r="H36">
-        <v>0.04232036286803514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03929233028612807</v>
+      </c>
+      <c r="I36">
+        <v>-0.04174630000995103</v>
+      </c>
+      <c r="J36">
+        <v>-0.01451882375461046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05443203994274939</v>
+        <v>0.01858361344612149</v>
       </c>
       <c r="C38">
-        <v>-0.01592341403088679</v>
+        <v>-0.01070494116412943</v>
       </c>
       <c r="D38">
-        <v>-0.01395047118329302</v>
+        <v>0.009387133954431621</v>
       </c>
       <c r="E38">
-        <v>-0.008550066767388693</v>
+        <v>-0.0149951409099979</v>
       </c>
       <c r="F38">
-        <v>-0.03176848608079385</v>
+        <v>-0.01895942241308749</v>
       </c>
       <c r="G38">
-        <v>-0.0586071106889552</v>
+        <v>-0.01663754099212122</v>
       </c>
       <c r="H38">
-        <v>-0.008548951392372961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01262228271957115</v>
+      </c>
+      <c r="I38">
+        <v>0.03627824576559002</v>
+      </c>
+      <c r="J38">
+        <v>-0.01131900927078154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1066642826804632</v>
+        <v>0.1357413349890506</v>
       </c>
       <c r="C39">
-        <v>-0.03946946566472249</v>
+        <v>-0.0886859425117236</v>
       </c>
       <c r="D39">
-        <v>-0.07231635010401059</v>
+        <v>0.02174458156198504</v>
       </c>
       <c r="E39">
-        <v>-0.002440627992439003</v>
+        <v>-0.05432554999172375</v>
       </c>
       <c r="F39">
-        <v>-0.01873612170167057</v>
+        <v>0.1316739295975087</v>
       </c>
       <c r="G39">
-        <v>-0.1455991453948974</v>
+        <v>-0.01444923423900036</v>
       </c>
       <c r="H39">
-        <v>-0.1030258060329609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1542967760404627</v>
+      </c>
+      <c r="I39">
+        <v>-0.05168895319470446</v>
+      </c>
+      <c r="J39">
+        <v>-0.01964891644440122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04785441626241095</v>
+        <v>0.01816353139971312</v>
       </c>
       <c r="C40">
-        <v>-0.02386856800940824</v>
+        <v>-0.02039315616670289</v>
       </c>
       <c r="D40">
-        <v>-0.0803591331634646</v>
+        <v>0.01681468465251946</v>
       </c>
       <c r="E40">
-        <v>0.03858201177486911</v>
+        <v>-0.001363583860112017</v>
       </c>
       <c r="F40">
-        <v>0.02956858778085631</v>
+        <v>-0.06203885217954101</v>
       </c>
       <c r="G40">
-        <v>-0.2892002459229371</v>
+        <v>-0.001521655586041633</v>
       </c>
       <c r="H40">
-        <v>-0.06695836910299834</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.07166608662399759</v>
+      </c>
+      <c r="I40">
+        <v>-0.08057195469549674</v>
+      </c>
+      <c r="J40">
+        <v>0.03576039677655857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04886804231862924</v>
+        <v>0.02724547122429385</v>
       </c>
       <c r="C41">
-        <v>-0.02894918026836083</v>
+        <v>0.00417072863066448</v>
       </c>
       <c r="D41">
-        <v>0.01419019200111417</v>
+        <v>0.03135733985306428</v>
       </c>
       <c r="E41">
-        <v>-0.008498629955249725</v>
+        <v>-0.008246730315463975</v>
       </c>
       <c r="F41">
-        <v>-0.03495396451735262</v>
+        <v>0.01464516972948261</v>
       </c>
       <c r="G41">
-        <v>-0.05507605500978888</v>
+        <v>-0.008242411678370714</v>
       </c>
       <c r="H41">
-        <v>-0.01543437663803733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01739761519357558</v>
+      </c>
+      <c r="I41">
+        <v>-0.02000183803982212</v>
+      </c>
+      <c r="J41">
+        <v>-0.03822689828627022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.0750459417568433</v>
+        <v>0.04052038489692256</v>
       </c>
       <c r="C43">
-        <v>-0.02563430175756326</v>
+        <v>-0.001252949886132628</v>
       </c>
       <c r="D43">
-        <v>-0.02816074864691054</v>
+        <v>0.03967749194009634</v>
       </c>
       <c r="E43">
-        <v>-0.007593317790704978</v>
+        <v>-0.03692319961156711</v>
       </c>
       <c r="F43">
-        <v>-0.03243389412450724</v>
+        <v>-0.0009557243533369756</v>
       </c>
       <c r="G43">
-        <v>-0.006703908140596149</v>
+        <v>-0.001760672311102575</v>
       </c>
       <c r="H43">
-        <v>-0.01960403364261574</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.01845566635849503</v>
+      </c>
+      <c r="I43">
+        <v>-0.02325293989076334</v>
+      </c>
+      <c r="J43">
+        <v>-0.05792279471977058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08021867241209693</v>
+        <v>0.1254896339422458</v>
       </c>
       <c r="C44">
-        <v>-0.01003247879527353</v>
+        <v>-0.08612390549316215</v>
       </c>
       <c r="D44">
-        <v>-0.07730194473778343</v>
+        <v>-0.007584502351636514</v>
       </c>
       <c r="E44">
-        <v>-0.08814515504121523</v>
+        <v>-0.04901422898366803</v>
       </c>
       <c r="F44">
-        <v>-0.070977035271756</v>
+        <v>-0.06702767041876728</v>
       </c>
       <c r="G44">
-        <v>-0.08304500056074193</v>
+        <v>-0.08976633234777007</v>
       </c>
       <c r="H44">
-        <v>0.004119346048983388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.1964394095701721</v>
+      </c>
+      <c r="I44">
+        <v>-0.09959234500810328</v>
+      </c>
+      <c r="J44">
+        <v>0.1518790153445367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05342267631254997</v>
+        <v>0.02429871143474767</v>
       </c>
       <c r="C46">
-        <v>-0.0363774558815568</v>
+        <v>0.00386680216827336</v>
       </c>
       <c r="D46">
-        <v>-0.05158892273464099</v>
+        <v>0.02427184727479118</v>
       </c>
       <c r="E46">
-        <v>0.005908267098341507</v>
+        <v>-0.03394783453827481</v>
       </c>
       <c r="F46">
-        <v>-0.02540418316344413</v>
+        <v>-0.02836293798998919</v>
       </c>
       <c r="G46">
-        <v>-0.01544717922866528</v>
+        <v>-0.02052382077064848</v>
       </c>
       <c r="H46">
-        <v>0.0724640425209377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05625875504712449</v>
+      </c>
+      <c r="I46">
+        <v>-0.03909722568841985</v>
+      </c>
+      <c r="J46">
+        <v>-0.06539437296836907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.04979650516356448</v>
+        <v>0.04098637837522717</v>
       </c>
       <c r="C47">
-        <v>0.0009008161418466256</v>
+        <v>0.00637074783011867</v>
       </c>
       <c r="D47">
-        <v>-0.06115032469857825</v>
+        <v>0.01116076829039152</v>
       </c>
       <c r="E47">
-        <v>0.03018774653189513</v>
+        <v>-0.008606982427071131</v>
       </c>
       <c r="F47">
-        <v>-0.0001464522391634552</v>
+        <v>-0.01290085136578235</v>
       </c>
       <c r="G47">
-        <v>-0.003475408971731834</v>
+        <v>0.009524359019607085</v>
       </c>
       <c r="H47">
-        <v>0.02224910924193168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.03054395461891697</v>
+      </c>
+      <c r="I47">
+        <v>-0.03104842836102244</v>
+      </c>
+      <c r="J47">
+        <v>-0.0446911546488496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04181500097745188</v>
+        <v>0.0388819989618593</v>
       </c>
       <c r="C48">
-        <v>-0.001697153878473793</v>
+        <v>-0.006224314942111904</v>
       </c>
       <c r="D48">
-        <v>-0.03428884984484479</v>
+        <v>-0.01261755393142149</v>
       </c>
       <c r="E48">
-        <v>0.03855750127452963</v>
+        <v>-0.01009973551485337</v>
       </c>
       <c r="F48">
-        <v>0.007145107513873516</v>
+        <v>0.002609321938200818</v>
       </c>
       <c r="G48">
-        <v>-0.04958295103005207</v>
+        <v>0.01446572726922817</v>
       </c>
       <c r="H48">
-        <v>0.003109482051407671</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05927563816004133</v>
+      </c>
+      <c r="I48">
+        <v>-0.04634031897508226</v>
+      </c>
+      <c r="J48">
+        <v>-0.03343067153399789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2386739733467103</v>
+        <v>0.2297225054987572</v>
       </c>
       <c r="C49">
-        <v>-0.06345176901921309</v>
+        <v>-0.008723856914358662</v>
       </c>
       <c r="D49">
-        <v>0.08873456668338792</v>
+        <v>0.07187242478708124</v>
       </c>
       <c r="E49">
-        <v>-0.02443099515801943</v>
+        <v>0.02486014390982422</v>
       </c>
       <c r="F49">
-        <v>0.07797421379093729</v>
+        <v>0.02700663634572327</v>
       </c>
       <c r="G49">
-        <v>0.1346287113936656</v>
+        <v>-0.06560155595584834</v>
       </c>
       <c r="H49">
-        <v>-0.06976938803085903</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1513106949105484</v>
+      </c>
+      <c r="I49">
+        <v>0.1595627165595266</v>
+      </c>
+      <c r="J49">
+        <v>0.1446837255488251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05604779340249601</v>
+        <v>0.04212145442980881</v>
       </c>
       <c r="C50">
-        <v>-0.01410146847070579</v>
+        <v>-0.01645436942293579</v>
       </c>
       <c r="D50">
-        <v>-0.01456211110391477</v>
+        <v>0.02741514535279597</v>
       </c>
       <c r="E50">
-        <v>0.02474939125090692</v>
+        <v>-0.0128907762038965</v>
       </c>
       <c r="F50">
-        <v>-0.03929701606258114</v>
+        <v>0.00627265901752554</v>
       </c>
       <c r="G50">
-        <v>-0.003470150408160687</v>
+        <v>-0.004982825052019015</v>
       </c>
       <c r="H50">
-        <v>0.0523334117724487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.05119890594844152</v>
+      </c>
+      <c r="I50">
+        <v>-0.0275145379308606</v>
+      </c>
+      <c r="J50">
+        <v>-0.03069233045644395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03548278708161892</v>
+        <v>0.01602422515849474</v>
       </c>
       <c r="C51">
-        <v>-0.009618091141144938</v>
+        <v>0.007093226041318038</v>
       </c>
       <c r="D51">
-        <v>-0.001722752087918562</v>
+        <v>0.002703253934447244</v>
       </c>
       <c r="E51">
-        <v>-0.0230731161600419</v>
+        <v>-0.01747014728095797</v>
       </c>
       <c r="F51">
-        <v>-0.02251580474079616</v>
+        <v>-0.006093170584284525</v>
       </c>
       <c r="G51">
-        <v>0.01851333933502314</v>
+        <v>-0.02229803056145429</v>
       </c>
       <c r="H51">
-        <v>-0.03887787860190876</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.02180307655820657</v>
+      </c>
+      <c r="I51">
+        <v>0.001328949423792305</v>
+      </c>
+      <c r="J51">
+        <v>0.004836558410447128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.09753445426903842</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.07031622075604405</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.02891515384624015</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02328819431433095</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02409039591503731</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.001716246404902063</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.06947440834801107</v>
+      </c>
+      <c r="I52">
+        <v>0.04443309337802862</v>
+      </c>
+      <c r="J52">
+        <v>-0.0970735723926691</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1625616560550044</v>
+        <v>0.1580710349923218</v>
       </c>
       <c r="C53">
-        <v>0.006040093659308178</v>
+        <v>-0.02192792831958757</v>
       </c>
       <c r="D53">
-        <v>0.06690001359629977</v>
+        <v>-0.003809859736944084</v>
       </c>
       <c r="E53">
-        <v>0.04780090847377164</v>
+        <v>0.009673087329116911</v>
       </c>
       <c r="F53">
-        <v>-0.2037954908145229</v>
+        <v>-0.0100369412174808</v>
       </c>
       <c r="G53">
-        <v>0.0367078735151819</v>
+        <v>-0.03436606165253101</v>
       </c>
       <c r="H53">
-        <v>0.05750263578711159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.03040324421593918</v>
+      </c>
+      <c r="I53">
+        <v>0.1213317077834983</v>
+      </c>
+      <c r="J53">
+        <v>-0.1653016333622329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05504968318622495</v>
+        <v>0.05100536969549049</v>
       </c>
       <c r="C54">
-        <v>-0.006161628705091245</v>
+        <v>-0.01328664387191279</v>
       </c>
       <c r="D54">
-        <v>-0.04083742840455498</v>
+        <v>0.0134094168917223</v>
       </c>
       <c r="E54">
-        <v>-0.006304687061995592</v>
+        <v>-0.01917280966790254</v>
       </c>
       <c r="F54">
-        <v>-0.01126174589381311</v>
+        <v>-0.01930461390350087</v>
       </c>
       <c r="G54">
-        <v>-0.05339812157156826</v>
+        <v>0.008930934475635062</v>
       </c>
       <c r="H54">
-        <v>0.0869345202527543</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0691138794109412</v>
+      </c>
+      <c r="I54">
+        <v>-0.1305011418055519</v>
+      </c>
+      <c r="J54">
+        <v>-0.05372314164662887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.0969392595000948</v>
+        <v>0.08921584513695584</v>
       </c>
       <c r="C55">
-        <v>-0.008339932774846006</v>
+        <v>-0.02733077190886916</v>
       </c>
       <c r="D55">
-        <v>0.01313522035259817</v>
+        <v>-0.01845885143188588</v>
       </c>
       <c r="E55">
-        <v>0.02787601901692066</v>
+        <v>-0.03745083065915054</v>
       </c>
       <c r="F55">
-        <v>-0.1420549327106146</v>
+        <v>0.02043242314737892</v>
       </c>
       <c r="G55">
-        <v>-0.009723702814686448</v>
+        <v>-0.0106556072452339</v>
       </c>
       <c r="H55">
-        <v>0.07435874751493429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.005477853680723277</v>
+      </c>
+      <c r="I55">
+        <v>0.02659522969650195</v>
+      </c>
+      <c r="J55">
+        <v>-0.1184622963009671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1635091100829785</v>
+        <v>0.1615020385603455</v>
       </c>
       <c r="C56">
-        <v>0.00698309101488924</v>
+        <v>-0.03449408591803963</v>
       </c>
       <c r="D56">
-        <v>0.07840877079761668</v>
+        <v>0.01140700305607348</v>
       </c>
       <c r="E56">
-        <v>0.0787954034219874</v>
+        <v>-0.02125155374922923</v>
       </c>
       <c r="F56">
-        <v>-0.1945745661151108</v>
+        <v>0.0249031984117862</v>
       </c>
       <c r="G56">
-        <v>0.01935652891707794</v>
+        <v>-0.0306617302260568</v>
       </c>
       <c r="H56">
-        <v>0.05841245924861027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.02864870673774457</v>
+      </c>
+      <c r="I56">
+        <v>0.06775959223878061</v>
+      </c>
+      <c r="J56">
+        <v>-0.1291588000406694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01799895764954188</v>
+        <v>0.03390030176087813</v>
       </c>
       <c r="C58">
-        <v>-0.08110154145875863</v>
+        <v>-0.01402823148673591</v>
       </c>
       <c r="D58">
-        <v>-0.2270155856812776</v>
+        <v>0.01910049461752873</v>
       </c>
       <c r="E58">
-        <v>0.04362494038627159</v>
+        <v>-0.01037126593472645</v>
       </c>
       <c r="F58">
-        <v>0.4008229513500656</v>
+        <v>-0.08120732712673802</v>
       </c>
       <c r="G58">
-        <v>-0.1263853429416454</v>
+        <v>0.005557505994983363</v>
       </c>
       <c r="H58">
-        <v>-0.1968258945729378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.101931326435285</v>
+      </c>
+      <c r="I58">
+        <v>0.01927822540784252</v>
+      </c>
+      <c r="J58">
+        <v>-0.02107488956358453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1486671532122659</v>
+        <v>0.1580184661263567</v>
       </c>
       <c r="C59">
-        <v>0.3839832053761296</v>
+        <v>0.3001854568111093</v>
       </c>
       <c r="D59">
-        <v>0.03736997266536823</v>
+        <v>-0.08292507616492259</v>
       </c>
       <c r="E59">
-        <v>-0.0576421363245267</v>
+        <v>-0.02342085889990056</v>
       </c>
       <c r="F59">
-        <v>-0.0503324891754152</v>
+        <v>0.04894024440796537</v>
       </c>
       <c r="G59">
-        <v>-0.0185684202380167</v>
+        <v>-0.03299889349186579</v>
       </c>
       <c r="H59">
-        <v>-0.03364125227239457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.06697565952791017</v>
+      </c>
+      <c r="I59">
+        <v>-0.045851147454712</v>
+      </c>
+      <c r="J59">
+        <v>-0.006636799406185112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.276958376423355</v>
+        <v>0.2820155030109559</v>
       </c>
       <c r="C60">
-        <v>-0.05089469993212264</v>
+        <v>-0.1048729919590961</v>
       </c>
       <c r="D60">
-        <v>0.055116213261377</v>
+        <v>0.02339972577932242</v>
       </c>
       <c r="E60">
-        <v>-0.04858827446341507</v>
+        <v>0.08507117821247037</v>
       </c>
       <c r="F60">
-        <v>0.0626105630576938</v>
+        <v>0.005391346596771881</v>
       </c>
       <c r="G60">
-        <v>0.1474875895649371</v>
+        <v>-0.1243923361530734</v>
       </c>
       <c r="H60">
-        <v>-0.04096789146551928</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1669836731067921</v>
+      </c>
+      <c r="I60">
+        <v>0.1800844087456744</v>
+      </c>
+      <c r="J60">
+        <v>0.3544675951522063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09448703245956343</v>
+        <v>0.1108585721554725</v>
       </c>
       <c r="C61">
-        <v>-0.02114089489835483</v>
+        <v>-0.05896369545266277</v>
       </c>
       <c r="D61">
-        <v>-0.02531470541422141</v>
+        <v>-0.003418069437130901</v>
       </c>
       <c r="E61">
-        <v>-0.009282632807626538</v>
+        <v>-0.04562432313905909</v>
       </c>
       <c r="F61">
-        <v>-0.03281594450604517</v>
+        <v>0.07902364462061869</v>
       </c>
       <c r="G61">
-        <v>-0.06260414761459243</v>
+        <v>-0.02124620796536096</v>
       </c>
       <c r="H61">
-        <v>-0.0450666003568226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1332351212366648</v>
+      </c>
+      <c r="I61">
+        <v>-0.125657729368564</v>
+      </c>
+      <c r="J61">
+        <v>-0.07192004695439201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.14423436689283</v>
+        <v>0.1592173448141386</v>
       </c>
       <c r="C62">
-        <v>-0.02490766187633433</v>
+        <v>-0.03365993333761657</v>
       </c>
       <c r="D62">
-        <v>0.1334926222336417</v>
+        <v>0.00441385419370912</v>
       </c>
       <c r="E62">
-        <v>0.07306096426647837</v>
+        <v>-0.003362179210195978</v>
       </c>
       <c r="F62">
-        <v>-0.1660155813948939</v>
+        <v>0.02201860968236661</v>
       </c>
       <c r="G62">
-        <v>0.008662546759883039</v>
+        <v>-0.005104427327701164</v>
       </c>
       <c r="H62">
-        <v>0.07908196669398039</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.0004551108340798438</v>
+      </c>
+      <c r="I62">
+        <v>0.1002718805974454</v>
+      </c>
+      <c r="J62">
+        <v>-0.1230256029052264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04378429440140066</v>
+        <v>0.04220005092105573</v>
       </c>
       <c r="C63">
-        <v>-0.01849892429812261</v>
+        <v>-0.006235074771082779</v>
       </c>
       <c r="D63">
-        <v>-0.002151829149938706</v>
+        <v>-0.006115786363535828</v>
       </c>
       <c r="E63">
-        <v>0.01690252069038945</v>
+        <v>-0.02333026083148081</v>
       </c>
       <c r="F63">
-        <v>-0.0004450892978250059</v>
+        <v>0.008841752727987231</v>
       </c>
       <c r="G63">
-        <v>-0.03661685581586295</v>
+        <v>0.03998786418131162</v>
       </c>
       <c r="H63">
-        <v>0.1072542449883106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.04681290268107414</v>
+      </c>
+      <c r="I63">
+        <v>-0.05910442560206658</v>
+      </c>
+      <c r="J63">
+        <v>-0.04179572372700726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1109720922000434</v>
+        <v>0.09885979722695758</v>
       </c>
       <c r="C64">
-        <v>-0.01045313982428003</v>
+        <v>-0.01482354098400953</v>
       </c>
       <c r="D64">
-        <v>-0.0502952283988894</v>
+        <v>0.01461432292203739</v>
       </c>
       <c r="E64">
-        <v>-0.02693546065737376</v>
+        <v>-0.003285983838441577</v>
       </c>
       <c r="F64">
-        <v>0.003086843013806612</v>
+        <v>-0.00171715780831857</v>
       </c>
       <c r="G64">
-        <v>-0.04634179080386569</v>
+        <v>-0.05370552307887517</v>
       </c>
       <c r="H64">
-        <v>0.008747342408295201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.04772811376926098</v>
+      </c>
+      <c r="I64">
+        <v>-0.04366290751712517</v>
+      </c>
+      <c r="J64">
+        <v>0.06006947428825859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1121450806119319</v>
+        <v>0.1173028724317756</v>
       </c>
       <c r="C65">
-        <v>-0.03137639856182794</v>
+        <v>-0.01210930325103667</v>
       </c>
       <c r="D65">
-        <v>-0.03846384458760583</v>
+        <v>-0.01714331428333748</v>
       </c>
       <c r="E65">
-        <v>-0.01036589163804361</v>
+        <v>0.01726630580819712</v>
       </c>
       <c r="F65">
-        <v>0.3868028452729248</v>
+        <v>-0.009461052150783982</v>
       </c>
       <c r="G65">
-        <v>0.1377555196450548</v>
+        <v>0.06926617029434066</v>
       </c>
       <c r="H65">
-        <v>0.6172875592923237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02021146898257869</v>
+      </c>
+      <c r="I65">
+        <v>-0.002677106861812684</v>
+      </c>
+      <c r="J65">
+        <v>0.2438974563983644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1566103589398363</v>
+        <v>0.1656132597248713</v>
       </c>
       <c r="C66">
-        <v>-0.0475632054751052</v>
+        <v>-0.100263641061388</v>
       </c>
       <c r="D66">
-        <v>-0.03619479948164275</v>
+        <v>0.03934980945861552</v>
       </c>
       <c r="E66">
-        <v>-0.04851562304064111</v>
+        <v>-0.06215041378762801</v>
       </c>
       <c r="F66">
-        <v>-0.06379039186999357</v>
+        <v>0.144170623397566</v>
       </c>
       <c r="G66">
-        <v>-0.2721941314330311</v>
+        <v>-0.02690203842094313</v>
       </c>
       <c r="H66">
-        <v>-0.173670047246889</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1405450819614081</v>
+      </c>
+      <c r="I66">
+        <v>-0.04931982189545209</v>
+      </c>
+      <c r="J66">
+        <v>-0.001707697974762336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1092310552203357</v>
+        <v>0.07899461756758383</v>
       </c>
       <c r="C67">
-        <v>-0.03485116255648534</v>
+        <v>-0.04137633440802985</v>
       </c>
       <c r="D67">
-        <v>0.002999184221195695</v>
+        <v>-0.01046747393488415</v>
       </c>
       <c r="E67">
-        <v>-0.03780464472175651</v>
+        <v>-0.06986709634498776</v>
       </c>
       <c r="F67">
-        <v>-0.05768350613245445</v>
+        <v>-0.01193253021294492</v>
       </c>
       <c r="G67">
-        <v>-0.03584456465819064</v>
+        <v>-0.0322890193311526</v>
       </c>
       <c r="H67">
-        <v>-0.0136838375387856</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.0934090076275868</v>
+      </c>
+      <c r="I67">
+        <v>0.02213127307230435</v>
+      </c>
+      <c r="J67">
+        <v>0.03425172318913156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.0364855534588522</v>
+        <v>0.07177162921311023</v>
       </c>
       <c r="C68">
-        <v>0.2924858099797852</v>
+        <v>0.2742980252869196</v>
       </c>
       <c r="D68">
-        <v>0.007386585720419558</v>
+        <v>-0.08946735188884855</v>
       </c>
       <c r="E68">
-        <v>0.01960218590947379</v>
+        <v>-0.00912575735667169</v>
       </c>
       <c r="F68">
-        <v>0.01709417308392898</v>
+        <v>0.03330030293467837</v>
       </c>
       <c r="G68">
-        <v>0.01689552262196266</v>
+        <v>0.01298121791919695</v>
       </c>
       <c r="H68">
-        <v>0.02951300953474581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04344350103299444</v>
+      </c>
+      <c r="I68">
+        <v>-0.0398892843042182</v>
+      </c>
+      <c r="J68">
+        <v>0.01548865517910873</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05022635284161545</v>
+        <v>0.03823361798655017</v>
       </c>
       <c r="C69">
-        <v>-0.01070788958823579</v>
+        <v>-0.004931326459484183</v>
       </c>
       <c r="D69">
-        <v>0.009022976338956988</v>
+        <v>-0.01059393856311391</v>
       </c>
       <c r="E69">
-        <v>0.0352620656139034</v>
+        <v>-0.02356697760289983</v>
       </c>
       <c r="F69">
-        <v>0.008740410857860911</v>
+        <v>-0.0006405456997383127</v>
       </c>
       <c r="G69">
-        <v>-0.02173526885898447</v>
+        <v>-0.002232626962077341</v>
       </c>
       <c r="H69">
-        <v>0.006366784782867169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01204883565259047</v>
+      </c>
+      <c r="I69">
+        <v>0.003188543777025815</v>
+      </c>
+      <c r="J69">
+        <v>-0.02209615693714597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08205276122218066</v>
+        <v>0.03795053118679604</v>
       </c>
       <c r="C70">
-        <v>-0.01003429478547401</v>
+        <v>0.00694584696131105</v>
       </c>
       <c r="D70">
-        <v>0.003496549077399054</v>
+        <v>-0.02185035050710535</v>
       </c>
       <c r="E70">
-        <v>-0.06100107834686365</v>
+        <v>-0.02266803166568305</v>
       </c>
       <c r="F70">
-        <v>-0.0146632296651752</v>
+        <v>0.02449625912637685</v>
       </c>
       <c r="G70">
-        <v>0.03784941744881994</v>
+        <v>-0.05602334040908561</v>
       </c>
       <c r="H70">
-        <v>-0.03358134778848941</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02106671721396596</v>
+      </c>
+      <c r="I70">
+        <v>-0.007326829427988252</v>
+      </c>
+      <c r="J70">
+        <v>-0.03391000280820439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04760993818303032</v>
+        <v>0.08495272869524816</v>
       </c>
       <c r="C71">
-        <v>0.3003842309441486</v>
+        <v>0.2886028627591087</v>
       </c>
       <c r="D71">
-        <v>-0.002130126287324113</v>
+        <v>-0.09393270236108123</v>
       </c>
       <c r="E71">
-        <v>-0.001120506029659748</v>
+        <v>-0.01109016207820934</v>
       </c>
       <c r="F71">
-        <v>0.0145274387240529</v>
+        <v>0.02406293208448486</v>
       </c>
       <c r="G71">
-        <v>-0.01170183738512664</v>
+        <v>-0.01344194056539115</v>
       </c>
       <c r="H71">
-        <v>0.00109200708500933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.04543812786328681</v>
+      </c>
+      <c r="I71">
+        <v>-0.03560674055531128</v>
+      </c>
+      <c r="J71">
+        <v>0.03926695254855544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1306848106599111</v>
+        <v>0.1363521155572539</v>
       </c>
       <c r="C72">
-        <v>0.02017076138584814</v>
+        <v>0.02013988415069184</v>
       </c>
       <c r="D72">
-        <v>0.08555212199688983</v>
+        <v>0.01478160853978662</v>
       </c>
       <c r="E72">
-        <v>0.1130872209357539</v>
+        <v>-0.01410671372276584</v>
       </c>
       <c r="F72">
-        <v>0.03405223649381834</v>
+        <v>0.01506672729739826</v>
       </c>
       <c r="G72">
-        <v>-0.08444863525584106</v>
+        <v>0.04464278064799428</v>
       </c>
       <c r="H72">
-        <v>0.1133890310217514</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.009946060209330428</v>
+      </c>
+      <c r="I72">
+        <v>0.005108591873523666</v>
+      </c>
+      <c r="J72">
+        <v>0.001468945256084178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2834618653822603</v>
+        <v>0.2476489665550003</v>
       </c>
       <c r="C73">
-        <v>-0.1461805402961446</v>
+        <v>-0.06149733525684774</v>
       </c>
       <c r="D73">
-        <v>0.1384759217978127</v>
+        <v>0.0533319418688064</v>
       </c>
       <c r="E73">
-        <v>-0.1149935321466381</v>
+        <v>-0.03386221331625301</v>
       </c>
       <c r="F73">
-        <v>0.3017082164941051</v>
+        <v>0.07832023325478561</v>
       </c>
       <c r="G73">
-        <v>0.2589674872254248</v>
+        <v>-0.1852703737778102</v>
       </c>
       <c r="H73">
-        <v>-0.2682519556840735</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2561634266810757</v>
+      </c>
+      <c r="I73">
+        <v>0.2812673848041151</v>
+      </c>
+      <c r="J73">
+        <v>0.1869463510918815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1003769825376479</v>
+        <v>0.1091531023219035</v>
       </c>
       <c r="C74">
-        <v>-0.03156039694801946</v>
+        <v>-0.02689910891589777</v>
       </c>
       <c r="D74">
-        <v>0.02501917682644226</v>
+        <v>0.02846812487796733</v>
       </c>
       <c r="E74">
-        <v>0.01745565095929347</v>
+        <v>-0.02897304246091264</v>
       </c>
       <c r="F74">
-        <v>-0.1012988886535413</v>
+        <v>0.007463510209977751</v>
       </c>
       <c r="G74">
-        <v>0.03143768731668358</v>
+        <v>-0.01003307748194343</v>
       </c>
       <c r="H74">
-        <v>0.02693542505590778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0468196614002184</v>
+      </c>
+      <c r="I74">
+        <v>0.0836961875758732</v>
+      </c>
+      <c r="J74">
+        <v>-0.1100303485837532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09325558176155746</v>
+        <v>0.1171049375037836</v>
       </c>
       <c r="C75">
-        <v>-0.01809799852658443</v>
+        <v>-0.03534922520573065</v>
       </c>
       <c r="D75">
-        <v>0.05020645485833881</v>
+        <v>0.0214864068855018</v>
       </c>
       <c r="E75">
-        <v>0.071392201234987</v>
+        <v>-0.01696500194704694</v>
       </c>
       <c r="F75">
-        <v>-0.08876367821169875</v>
+        <v>0.00535327721399682</v>
       </c>
       <c r="G75">
-        <v>0.04739369328016894</v>
+        <v>0.02184705085902211</v>
       </c>
       <c r="H75">
-        <v>0.01172037137762423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.003463787120304518</v>
+      </c>
+      <c r="I75">
+        <v>0.04355934705900715</v>
+      </c>
+      <c r="J75">
+        <v>-0.1226544719001064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1403350933962778</v>
+        <v>0.04660534195805797</v>
       </c>
       <c r="C76">
-        <v>-0.02329390202054396</v>
+        <v>-0.002498288835034036</v>
       </c>
       <c r="D76">
-        <v>0.01002373584737793</v>
+        <v>0.01314634467015218</v>
       </c>
       <c r="E76">
-        <v>0.05909402617624895</v>
+        <v>-0.03482952261074754</v>
       </c>
       <c r="F76">
-        <v>-0.2286994199650709</v>
+        <v>-0.009662383067328546</v>
       </c>
       <c r="G76">
-        <v>0.08443524739300436</v>
+        <v>-0.03057112746327724</v>
       </c>
       <c r="H76">
-        <v>0.04245673587352578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04461529021892141</v>
+      </c>
+      <c r="I76">
+        <v>0.02954928252740821</v>
+      </c>
+      <c r="J76">
+        <v>-0.09269586268925703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07982217869881486</v>
+        <v>0.08183896293771935</v>
       </c>
       <c r="C77">
-        <v>0.01017720477136976</v>
+        <v>-0.08003591968190539</v>
       </c>
       <c r="D77">
-        <v>-0.121178732780246</v>
+        <v>0.01610367284330912</v>
       </c>
       <c r="E77">
-        <v>-0.1080397196164334</v>
+        <v>0.007990572402132102</v>
       </c>
       <c r="F77">
-        <v>0.2049217948820997</v>
+        <v>-0.01254859053876191</v>
       </c>
       <c r="G77">
-        <v>-0.1632203362458773</v>
+        <v>-0.04776024076572567</v>
       </c>
       <c r="H77">
-        <v>-0.1429607815200688</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.04222364242969833</v>
+      </c>
+      <c r="I77">
+        <v>-0.1962953732841381</v>
+      </c>
+      <c r="J77">
+        <v>0.3942367463550535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2288698084468476</v>
+        <v>0.1328081167664508</v>
       </c>
       <c r="C78">
-        <v>-0.0473170706505493</v>
+        <v>0.006751335652321196</v>
       </c>
       <c r="D78">
-        <v>-0.2181037136675347</v>
+        <v>0.1629445855000995</v>
       </c>
       <c r="E78">
-        <v>-0.04107678855781743</v>
+        <v>-0.2008956770009948</v>
       </c>
       <c r="F78">
-        <v>0.02559432927050392</v>
+        <v>-0.2635298378064481</v>
       </c>
       <c r="G78">
-        <v>-0.1343322344604879</v>
+        <v>0.1339352808560789</v>
       </c>
       <c r="H78">
-        <v>0.09978246251182987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.6238450290363391</v>
+      </c>
+      <c r="I78">
+        <v>-0.5550911998261855</v>
+      </c>
+      <c r="J78">
+        <v>-0.1348226448526226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1369540229407237</v>
+        <v>0.1405497195191304</v>
       </c>
       <c r="C79">
-        <v>-0.006085879063468976</v>
+        <v>-0.03081967323012704</v>
       </c>
       <c r="D79">
-        <v>0.03360918265579286</v>
+        <v>0.04490346953479111</v>
       </c>
       <c r="E79">
-        <v>0.04599027976041564</v>
+        <v>-0.004829714309868173</v>
       </c>
       <c r="F79">
-        <v>-0.124653540741197</v>
+        <v>0.01640474385840197</v>
       </c>
       <c r="G79">
-        <v>-0.008636604577076434</v>
+        <v>-0.01807554930160204</v>
       </c>
       <c r="H79">
-        <v>0.06402400603677635</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.04126430726886571</v>
+      </c>
+      <c r="I79">
+        <v>0.07216547897213589</v>
+      </c>
+      <c r="J79">
+        <v>-0.0840080600907928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03515642059983232</v>
+        <v>0.07220504054116339</v>
       </c>
       <c r="C80">
-        <v>-0.006713487432661557</v>
+        <v>-0.05734423987803065</v>
       </c>
       <c r="D80">
-        <v>0.03058139723264126</v>
+        <v>-0.01125024795733421</v>
       </c>
       <c r="E80">
-        <v>-0.05479927455984927</v>
+        <v>-0.03268082590841902</v>
       </c>
       <c r="F80">
-        <v>0.02182020874346377</v>
+        <v>0.05885032474854333</v>
       </c>
       <c r="G80">
-        <v>-0.04921505270459348</v>
+        <v>-0.0002368704840392192</v>
       </c>
       <c r="H80">
-        <v>0.1265693961837116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.03563342878183796</v>
+      </c>
+      <c r="I80">
+        <v>-0.06885882347001419</v>
+      </c>
+      <c r="J80">
+        <v>-0.2098304832814915</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1112437390616369</v>
+        <v>0.1370812270768259</v>
       </c>
       <c r="C81">
-        <v>0.001929152310023417</v>
+        <v>-0.03560545397682186</v>
       </c>
       <c r="D81">
-        <v>0.0197159481260423</v>
+        <v>0.0327694822743668</v>
       </c>
       <c r="E81">
-        <v>0.03071974324679083</v>
+        <v>-0.02160155766467392</v>
       </c>
       <c r="F81">
-        <v>-0.1312625456575131</v>
+        <v>0.004164103197112076</v>
       </c>
       <c r="G81">
-        <v>0.03334695269743952</v>
+        <v>-0.007950465523155828</v>
       </c>
       <c r="H81">
-        <v>-0.001305203275615223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.04388536323627856</v>
+      </c>
+      <c r="I81">
+        <v>0.02942612565215548</v>
+      </c>
+      <c r="J81">
+        <v>-0.1504316615954968</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1143131918381698</v>
+        <v>0.1556567908133122</v>
       </c>
       <c r="C82">
-        <v>-0.02067580685263901</v>
+        <v>-0.05207690689619943</v>
       </c>
       <c r="D82">
-        <v>0.03311580297432633</v>
+        <v>-0.002138045631292593</v>
       </c>
       <c r="E82">
-        <v>-0.04221093674011592</v>
+        <v>-0.006700852875279521</v>
       </c>
       <c r="F82">
-        <v>-0.2465249565284867</v>
+        <v>0.04141778324693569</v>
       </c>
       <c r="G82">
-        <v>0.001921904051171947</v>
+        <v>-0.05115055482272252</v>
       </c>
       <c r="H82">
-        <v>0.04110184633512497</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.03749736808065724</v>
+      </c>
+      <c r="I82">
+        <v>0.1175304908003865</v>
+      </c>
+      <c r="J82">
+        <v>-0.1977223333268997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.113280706518509</v>
+        <v>0.08900525548536767</v>
       </c>
       <c r="C83">
-        <v>-0.04408508971640003</v>
+        <v>-0.04964278093332276</v>
       </c>
       <c r="D83">
-        <v>-0.001649788177230136</v>
+        <v>0.007035832442967741</v>
       </c>
       <c r="E83">
-        <v>-0.09623835347971871</v>
+        <v>0.0263400352141045</v>
       </c>
       <c r="F83">
-        <v>0.03442486345579474</v>
+        <v>-0.02879641601760898</v>
       </c>
       <c r="G83">
-        <v>-0.06479936160821702</v>
+        <v>0.01665297996948094</v>
       </c>
       <c r="H83">
-        <v>-0.09424094937707901</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.03240391885713426</v>
+      </c>
+      <c r="I83">
+        <v>-0.09783378396547078</v>
+      </c>
+      <c r="J83">
+        <v>-0.0793938037301591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.0505274415164441</v>
+        <v>0.06409127830087404</v>
       </c>
       <c r="C84">
-        <v>-0.02541970989380934</v>
+        <v>-0.01830312907896688</v>
       </c>
       <c r="D84">
-        <v>-0.01793117405207301</v>
+        <v>-0.007640285035832316</v>
       </c>
       <c r="E84">
-        <v>0.05508478048784202</v>
+        <v>0.025790795164205</v>
       </c>
       <c r="F84">
-        <v>-0.05045835686870427</v>
+        <v>0.03616930760833657</v>
       </c>
       <c r="G84">
-        <v>0.04211334417365763</v>
+        <v>-0.03835517636308056</v>
       </c>
       <c r="H84">
-        <v>-0.008090314060440711</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01238383933588894</v>
+      </c>
+      <c r="I84">
+        <v>-0.0118181134791607</v>
+      </c>
+      <c r="J84">
+        <v>0.02556313125477937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1074003702566319</v>
+        <v>0.1249496883968174</v>
       </c>
       <c r="C85">
-        <v>-0.01259888883300768</v>
+        <v>-0.02602145287167929</v>
       </c>
       <c r="D85">
-        <v>0.04270889899617505</v>
+        <v>0.01850361662625937</v>
       </c>
       <c r="E85">
-        <v>0.07681729893624931</v>
+        <v>-0.01193284555644461</v>
       </c>
       <c r="F85">
-        <v>-0.1444773341755645</v>
+        <v>0.007237866106553618</v>
       </c>
       <c r="G85">
-        <v>-0.01475536401067323</v>
+        <v>-0.01666901278626233</v>
       </c>
       <c r="H85">
-        <v>0.0950298988220495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.02500155117307609</v>
+      </c>
+      <c r="I85">
+        <v>0.04433799211199831</v>
+      </c>
+      <c r="J85">
+        <v>-0.1151945375879394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06921336598481598</v>
+        <v>0.120262946735884</v>
       </c>
       <c r="C86">
-        <v>-0.01896000775315795</v>
+        <v>0.05295665004701811</v>
       </c>
       <c r="D86">
-        <v>-0.09243021132601946</v>
+        <v>0.3323501759908645</v>
       </c>
       <c r="E86">
-        <v>-0.1057147992168861</v>
+        <v>0.8710812058011076</v>
       </c>
       <c r="F86">
-        <v>-0.01462765811664225</v>
+        <v>-0.163170267784026</v>
       </c>
       <c r="G86">
-        <v>-0.02884903372391344</v>
+        <v>0.08848570802030777</v>
       </c>
       <c r="H86">
-        <v>0.2492770608022423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.08171928540198216</v>
+      </c>
+      <c r="I86">
+        <v>-0.1316094707835861</v>
+      </c>
+      <c r="J86">
+        <v>-0.04746943939244602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1082346824426809</v>
+        <v>0.1123392707239182</v>
       </c>
       <c r="C87">
-        <v>-0.05416183833466145</v>
+        <v>-0.1018754924452779</v>
       </c>
       <c r="D87">
-        <v>-0.06250105938927725</v>
+        <v>-0.05246534101250159</v>
       </c>
       <c r="E87">
-        <v>-0.01830624717349988</v>
+        <v>-0.00771322560841082</v>
       </c>
       <c r="F87">
-        <v>0.01062573185582837</v>
+        <v>-0.0351930700487021</v>
       </c>
       <c r="G87">
-        <v>-0.1156812385624396</v>
+        <v>-0.03151497113155859</v>
       </c>
       <c r="H87">
-        <v>0.02202806581705731</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.005426186725408956</v>
+      </c>
+      <c r="I87">
+        <v>-0.2336526767662184</v>
+      </c>
+      <c r="J87">
+        <v>0.2206971440394383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07126298003881175</v>
+        <v>0.05407607770690483</v>
       </c>
       <c r="C88">
-        <v>-0.04150276758751586</v>
+        <v>-0.02518011659314227</v>
       </c>
       <c r="D88">
-        <v>-0.02289964317412219</v>
+        <v>0.02753672023985922</v>
       </c>
       <c r="E88">
-        <v>-0.02233727927882825</v>
+        <v>-0.03182947621701198</v>
       </c>
       <c r="F88">
-        <v>-0.02731261592834612</v>
+        <v>0.05247167223236202</v>
       </c>
       <c r="G88">
-        <v>-0.04711956667004965</v>
+        <v>-0.01581176262358861</v>
       </c>
       <c r="H88">
-        <v>-0.009516890585890586</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03060877551692582</v>
+      </c>
+      <c r="I88">
+        <v>-0.03445760716206735</v>
+      </c>
+      <c r="J88">
+        <v>-0.05740375163525995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09183203607320643</v>
+        <v>0.13378844298581</v>
       </c>
       <c r="C89">
-        <v>0.3869427440286158</v>
+        <v>0.3632261391546648</v>
       </c>
       <c r="D89">
-        <v>-0.04151681084597617</v>
+        <v>-0.1058738224364256</v>
       </c>
       <c r="E89">
-        <v>-0.0516202213021404</v>
+        <v>-0.001129213520997942</v>
       </c>
       <c r="F89">
-        <v>0.02226306805882994</v>
+        <v>-0.0425690846905396</v>
       </c>
       <c r="G89">
-        <v>0.003456990836618724</v>
+        <v>-0.04919455768931187</v>
       </c>
       <c r="H89">
-        <v>-0.02275847495495095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.004389440452720565</v>
+      </c>
+      <c r="I89">
+        <v>-0.02016333169011975</v>
+      </c>
+      <c r="J89">
+        <v>0.008052348174567016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07236091595275426</v>
+        <v>0.1009210104647759</v>
       </c>
       <c r="C90">
-        <v>0.2933865978479062</v>
+        <v>0.2856462526370678</v>
       </c>
       <c r="D90">
-        <v>-0.05510536561031157</v>
+        <v>-0.08441868456111092</v>
       </c>
       <c r="E90">
-        <v>-0.01405593351616685</v>
+        <v>0.001315430587778137</v>
       </c>
       <c r="F90">
-        <v>0.03560595356570285</v>
+        <v>0.02686968543698797</v>
       </c>
       <c r="G90">
-        <v>-0.03370226160470836</v>
+        <v>-0.02289557789959946</v>
       </c>
       <c r="H90">
-        <v>-0.03939115131805586</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06631187834741224</v>
+      </c>
+      <c r="I90">
+        <v>-0.03766639986999409</v>
+      </c>
+      <c r="J90">
+        <v>0.05016752500972948</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08151643055059925</v>
+        <v>0.08697190736615491</v>
       </c>
       <c r="C91">
-        <v>-0.0207014859760548</v>
+        <v>-0.0208110001176541</v>
       </c>
       <c r="D91">
-        <v>0.02130080287537535</v>
+        <v>0.02069901418665251</v>
       </c>
       <c r="E91">
-        <v>0.01660213402691486</v>
+        <v>0.006946754045956039</v>
       </c>
       <c r="F91">
-        <v>-0.06702828651193</v>
+        <v>-0.0007069792475920274</v>
       </c>
       <c r="G91">
-        <v>0.06405568570013732</v>
+        <v>-0.02370016118558849</v>
       </c>
       <c r="H91">
-        <v>-0.02467197401044714</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.007135402658905584</v>
+      </c>
+      <c r="I91">
+        <v>0.04402151249681439</v>
+      </c>
+      <c r="J91">
+        <v>-0.07186289966365236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.0643288483399512</v>
+        <v>0.1140347329306435</v>
       </c>
       <c r="C92">
-        <v>0.3569787112624058</v>
+        <v>0.3213277185231277</v>
       </c>
       <c r="D92">
-        <v>-0.03325040034612934</v>
+        <v>-0.1172217582633901</v>
       </c>
       <c r="E92">
-        <v>-0.01764745313950902</v>
+        <v>0.003519276333254465</v>
       </c>
       <c r="F92">
-        <v>0.05878783512893498</v>
+        <v>-0.01628782211701656</v>
       </c>
       <c r="G92">
-        <v>0.007327645226419631</v>
+        <v>-0.001335758669244408</v>
       </c>
       <c r="H92">
-        <v>-0.02216493388593473</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.061181710842027</v>
+      </c>
+      <c r="I92">
+        <v>-0.04854823843726008</v>
+      </c>
+      <c r="J92">
+        <v>-0.02785322546249283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08019623321453513</v>
+        <v>0.1028949462991548</v>
       </c>
       <c r="C93">
-        <v>0.3040896778820745</v>
+        <v>0.3129021678465102</v>
       </c>
       <c r="D93">
-        <v>-0.01958518357490229</v>
+        <v>-0.09076018747320398</v>
       </c>
       <c r="E93">
-        <v>-0.002434116460833892</v>
+        <v>0.01460986836156408</v>
       </c>
       <c r="F93">
-        <v>0.03107178443571741</v>
+        <v>0.04604666002438575</v>
       </c>
       <c r="G93">
-        <v>0.02875505556848149</v>
+        <v>-0.03058129193795961</v>
       </c>
       <c r="H93">
-        <v>0.01249456437515782</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04051830559816204</v>
+      </c>
+      <c r="I93">
+        <v>-0.03260008738853439</v>
+      </c>
+      <c r="J93">
+        <v>0.02265126823233492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09249520070091426</v>
+        <v>0.1341933744298967</v>
       </c>
       <c r="C94">
-        <v>-0.04201284424380808</v>
+        <v>-0.03474100541798977</v>
       </c>
       <c r="D94">
-        <v>0.01721574741613658</v>
+        <v>0.02200076678519136</v>
       </c>
       <c r="E94">
-        <v>0.04692459665582591</v>
+        <v>-0.0487780235247524</v>
       </c>
       <c r="F94">
-        <v>-0.1177376664157067</v>
+        <v>-0.008953218336895417</v>
       </c>
       <c r="G94">
-        <v>0.0543753157342401</v>
+        <v>-0.008212427053646434</v>
       </c>
       <c r="H94">
-        <v>0.03145519404371194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.003509311946271466</v>
+      </c>
+      <c r="I94">
+        <v>0.07322457623618039</v>
+      </c>
+      <c r="J94">
+        <v>-0.09710131465366971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.129484709860199</v>
+        <v>0.1200749192186456</v>
       </c>
       <c r="C95">
-        <v>-0.07643900677629217</v>
+        <v>-0.04872894247822455</v>
       </c>
       <c r="D95">
-        <v>-0.09054280372045513</v>
+        <v>0.03467757404162772</v>
       </c>
       <c r="E95">
-        <v>-0.08041051463028982</v>
+        <v>-0.03663941205147923</v>
       </c>
       <c r="F95">
-        <v>0.059233755238104</v>
+        <v>-0.0241326992105441</v>
       </c>
       <c r="G95">
-        <v>-0.1097903603522207</v>
+        <v>-0.03739932124067622</v>
       </c>
       <c r="H95">
-        <v>0.06537609883991292</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.05294780061214981</v>
+      </c>
+      <c r="I95">
+        <v>-0.1202227237734829</v>
+      </c>
+      <c r="J95">
+        <v>0.003794117009592525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01145828653762801</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001756837347102847</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0008732082354552391</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.004922445428495847</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.007202538128181826</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004090267651587451</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.003048243637317261</v>
+      </c>
+      <c r="I96">
+        <v>-0.02697921423700902</v>
+      </c>
+      <c r="J96">
+        <v>0.01713533810766595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1469728781198182</v>
+        <v>0.1686586476003449</v>
       </c>
       <c r="C97">
-        <v>0.0410693728634335</v>
+        <v>0.01966653507999386</v>
       </c>
       <c r="D97">
-        <v>0.2442201818552796</v>
+        <v>0.03393391651687785</v>
       </c>
       <c r="E97">
-        <v>0.8271936970142184</v>
+        <v>-0.1131879908769785</v>
       </c>
       <c r="F97">
-        <v>0.221258073838115</v>
+        <v>-0.01722523078776609</v>
       </c>
       <c r="G97">
-        <v>-0.1637883825370418</v>
+        <v>0.9155404487467443</v>
       </c>
       <c r="H97">
-        <v>-0.03937521287096191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.06443169939048447</v>
+      </c>
+      <c r="I97">
+        <v>0.201535007638215</v>
+      </c>
+      <c r="J97">
+        <v>0.09076703878927417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3275266452744447</v>
+        <v>0.2734086574915414</v>
       </c>
       <c r="C98">
-        <v>-0.05076349834527641</v>
+        <v>-0.03036408040150033</v>
       </c>
       <c r="D98">
-        <v>0.2175720765585726</v>
+        <v>-0.02758833121530134</v>
       </c>
       <c r="E98">
-        <v>-0.1630096518795743</v>
+        <v>0.1040137849809786</v>
       </c>
       <c r="F98">
-        <v>0.0840239749557606</v>
+        <v>-0.06740111744066005</v>
       </c>
       <c r="G98">
-        <v>0.320910598480153</v>
+        <v>-0.03472512834535027</v>
       </c>
       <c r="H98">
-        <v>-0.24666777159583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.2858095778904419</v>
+      </c>
+      <c r="I98">
+        <v>0.2225048704017853</v>
+      </c>
+      <c r="J98">
+        <v>-0.173372695101268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08868050541521051</v>
+        <v>0.05941815993950769</v>
       </c>
       <c r="C99">
-        <v>-0.01923151378549167</v>
+        <v>0.003214847694773332</v>
       </c>
       <c r="D99">
-        <v>0.005361844756402672</v>
+        <v>0.01974879954410021</v>
       </c>
       <c r="E99">
-        <v>-0.00141316049896629</v>
+        <v>-0.04645211979364019</v>
       </c>
       <c r="F99">
-        <v>0.002094136509237274</v>
+        <v>-0.007454070050169325</v>
       </c>
       <c r="G99">
-        <v>-0.02591138457543302</v>
+        <v>-0.009864707200049935</v>
       </c>
       <c r="H99">
-        <v>-0.07351516440453838</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02120378279749125</v>
+      </c>
+      <c r="I99">
+        <v>0.01404892796503421</v>
+      </c>
+      <c r="J99">
+        <v>-0.01918104856707457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.08680133842441888</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2795638965508346</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8635085634457946</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2685787672997869</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.1154920934019564</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.08455309579078971</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.08101154638947718</v>
+      </c>
+      <c r="I100">
+        <v>-0.09859427073365039</v>
+      </c>
+      <c r="J100">
+        <v>-0.06027186372386673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05992854823742343</v>
+        <v>0.03578138243212425</v>
       </c>
       <c r="C101">
-        <v>0.0001115571826580567</v>
+        <v>-0.008285543987322322</v>
       </c>
       <c r="D101">
-        <v>-0.04788789639071298</v>
+        <v>-0.005548120335943281</v>
       </c>
       <c r="E101">
-        <v>-0.02285831110796409</v>
+        <v>-0.01180520833902584</v>
       </c>
       <c r="F101">
-        <v>-0.03565626958299511</v>
+        <v>0.02066928218392478</v>
       </c>
       <c r="G101">
-        <v>-0.03059181013619608</v>
+        <v>-0.0265496016348651</v>
       </c>
       <c r="H101">
-        <v>0.0843755812690148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.08195314389691416</v>
+      </c>
+      <c r="I101">
+        <v>-0.06532248214667606</v>
+      </c>
+      <c r="J101">
+        <v>-0.07026471147810656</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
